--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77200.09881528158</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77200.09881528158</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957741346.481172</v>
+        <v>34576744.49997985</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9598.395363691176</v>
+        <v>735797.7638086237</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18992.00956398281</v>
+        <v>1437620.013928642</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28389.23578660685</v>
+        <v>2139442.264048662</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37982.58961381205</v>
+        <v>2840561.090517891</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47575.94344101724</v>
+        <v>3541679.916987119</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57169.24422030465</v>
+        <v>4242798.743456348</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66762.54499959206</v>
+        <v>4943917.569925573</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76355.84577887951</v>
+        <v>5645036.396394797</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85949.1996060847</v>
+        <v>6346155.222864022</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95542.55343328988</v>
+        <v>7047274.049333247</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105135.9043101773</v>
+        <v>7748392.875802472</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114729.2050894648</v>
+        <v>8449511.702271702</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124322.5058687522</v>
+        <v>9150630.528740937</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133915.8596959574</v>
+        <v>9851749.35521017</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>143509.2135231627</v>
+        <v>10552868.18167941</v>
       </c>
     </row>
   </sheetData>
